--- a/results_analysis/ksom_vertebralColumn_02_hold_01_best.xlsx
+++ b/results_analysis/ksom_vertebralColumn_02_hold_01_best.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F883015-4D48-408F-A2D7-2626BABBBA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C02B96-59D8-4475-A3A2-4B211EA6337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE0D8406-1939-42F0-B5EC-F1A66084C35D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FE0D8406-1939-42F0-B5EC-F1A66084C35D}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_hp_best" sheetId="1" r:id="rId1"/>
     <sheet name="acc_mean" sheetId="2" r:id="rId2"/>
     <sheet name="acc_median" sheetId="5" r:id="rId3"/>
-    <sheet name="MCC" sheetId="3" r:id="rId4"/>
-    <sheet name="F1S" sheetId="4" r:id="rId5"/>
+    <sheet name="acc_std" sheetId="6" r:id="rId4"/>
+    <sheet name="MCC" sheetId="3" r:id="rId5"/>
+    <sheet name="F1S" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="19">
   <si>
     <t>Algorithm</t>
   </si>
@@ -441,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,24 +553,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A889A0D-6079-4851-A2AA-AD4BB1CBB64D}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,28 +945,28 @@
       <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="27">
         <v>0.82795698924731198</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="27">
         <v>0.86021505376344098</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="27">
         <v>0.91397849462365599</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="27">
         <v>0.87096774193548399</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="27">
         <v>0.86021505376344098</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="27">
         <v>0.87096774193548399</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="27">
         <v>0.87096774193548399</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="28">
         <v>0.89247311827956999</v>
       </c>
     </row>
@@ -992,28 +975,28 @@
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="29">
         <v>0.80645161290322598</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="29">
         <v>0.80645161290322598</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="29">
         <v>0.76344086021505397</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="29">
         <v>0.81720430107526898</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="29">
         <v>0.80645161290322598</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="29">
         <v>0.81720430107526898</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="29">
         <v>0.87096774193548399</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="30">
         <v>0.81720430107526898</v>
       </c>
     </row>
@@ -1022,28 +1005,28 @@
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="29">
         <v>0.82795698924731198</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="29">
         <v>0.86021505376344098</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="29">
         <v>0.81720430107526898</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="29">
         <v>0.86021505376344098</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="29">
         <v>0.84946236559139798</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="29">
         <v>0.87096774193548399</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="29">
         <v>0.90322580645161299</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="30">
         <v>0.86021505376344098</v>
       </c>
     </row>
@@ -1054,28 +1037,28 @@
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="29">
         <v>0.82795698924731198</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="29">
         <v>0.82795698924731198</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="29">
         <v>0.81720430107526898</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="29">
         <v>0.87096774193548399</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="29">
         <v>0.82795698924731198</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="29">
         <v>0.86021505376344098</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="29">
         <v>0.84946236559139798</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="30">
         <v>0.82795698924731198</v>
       </c>
     </row>
@@ -1084,28 +1067,28 @@
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="29">
         <v>0.79569892473118298</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="29">
         <v>0.79569892473118298</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="29">
         <v>0.79569892473118298</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="29">
         <v>0.79569892473118298</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="29">
         <v>0.78494623655913998</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="29">
         <v>0.80645161290322598</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="29">
         <v>0.78494623655913998</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="30">
         <v>0.80645161290322598</v>
       </c>
     </row>
@@ -1114,28 +1097,28 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="31">
         <v>0.86021505376344098</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="31">
         <v>0.83870967741935498</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="31">
         <v>0.89247311827956999</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="31">
         <v>0.81720430107526898</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="31">
         <v>0.83870967741935498</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="31">
         <v>0.87096774193548399</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="31">
         <v>0.83870967741935498</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="32">
         <v>0.86021505376344098</v>
       </c>
     </row>
@@ -1508,7 +1491,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,28 +1541,28 @@
       <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="27">
         <v>0.69870967741935497</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="27">
         <v>0.75580645161290305</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="27">
         <v>0.81892473118279596</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="27">
         <v>0.76892473118279603</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="27">
         <v>0.75150537634408598</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="27">
         <v>0.74946236559139801</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="27">
         <v>0.76290322580645198</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="28">
         <v>0.75258064516128997</v>
       </c>
     </row>
@@ -1588,28 +1571,28 @@
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="29">
         <v>0.58978494623655897</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="29">
         <v>0.641075268817204</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="29">
         <v>0.59258064516129005</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="29">
         <v>0.59892473118279599</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="29">
         <v>0.63290322580645197</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="29">
         <v>0.63612903225806505</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="29">
         <v>0.72247311827956995</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="30">
         <v>0.65322580645161299</v>
       </c>
     </row>
@@ -1618,28 +1601,28 @@
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="29">
         <v>0.69892473118279597</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="29">
         <v>0.72645161290322602</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="29">
         <v>0.68096774193548404</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="29">
         <v>0.74139784946236598</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="29">
         <v>0.72978494623655898</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="29">
         <v>0.70107526881720394</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="29">
         <v>0.76193548387096799</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="30">
         <v>0.74580645161290304</v>
       </c>
     </row>
@@ -1650,28 +1633,28 @@
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="29">
         <v>0.70268817204301104</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="29">
         <v>0.71333333333333304</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="29">
         <v>0.71548387096774202</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="29">
         <v>0.72344086021505405</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="29">
         <v>0.72010752688172097</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="29">
         <v>0.72333333333333305</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="29">
         <v>0.716989247311828</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="30">
         <v>0.70913978494623697</v>
       </c>
     </row>
@@ -1680,28 +1663,28 @@
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="29">
         <v>0.59505376344086003</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="29">
         <v>0.58881720430107498</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="29">
         <v>0.57118279569892505</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="29">
         <v>0.60010752688171998</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="29">
         <v>0.58924731182795698</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="29">
         <v>0.58354838709677403</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="29">
         <v>0.62322580645161296</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="30">
         <v>0.61634408602150503</v>
       </c>
     </row>
@@ -1710,28 +1693,28 @@
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="31">
         <v>0.69075268817204305</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="31">
         <v>0.68354838709677401</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="31">
         <v>0.706774193548387</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="31">
         <v>0.68161290322580603</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="31">
         <v>0.71064516129032296</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="31">
         <v>0.695913978494624</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="31">
         <v>0.69989247311827896</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="32">
         <v>0.69967741935483896</v>
       </c>
     </row>
@@ -1745,7 +1728,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1977,11 +1960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF95E80-F9D6-4C97-A976-8D8517BE58EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3380558F-E740-46B0-AD72-8B8A94A45F2E}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,28 +2014,28 @@
         <v>16</v>
       </c>
       <c r="C3" s="27">
-        <v>0.78117647058823503</v>
+        <v>6.0421452653239498E-2</v>
       </c>
       <c r="D3" s="27">
-        <v>0.84836322588737001</v>
+        <v>4.6514580856809797E-2</v>
       </c>
       <c r="E3" s="27">
-        <v>0.88768115942029002</v>
+        <v>3.4096279951097097E-2</v>
       </c>
       <c r="F3" s="27">
-        <v>0.83983926521240004</v>
+        <v>4.6444225625339099E-2</v>
       </c>
       <c r="G3" s="27">
-        <v>0.851928965094917</v>
+        <v>5.6338775341145099E-2</v>
       </c>
       <c r="H3" s="27">
-        <v>0.84967672413793105</v>
+        <v>4.9275007472643399E-2</v>
       </c>
       <c r="I3" s="27">
-        <v>0.85483870967741904</v>
+        <v>5.3148981356137701E-2</v>
       </c>
       <c r="J3" s="28">
-        <v>0.88089139344262302</v>
+        <v>5.08380846433686E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2061,28 +2044,28 @@
         <v>17</v>
       </c>
       <c r="C4" s="29">
-        <v>0.79802123552123605</v>
+        <v>0.105292024436952</v>
       </c>
       <c r="D4" s="29">
-        <v>0.80462184873949605</v>
+        <v>8.5555651791999102E-2</v>
       </c>
       <c r="E4" s="29">
-        <v>0.75712250712250695</v>
+        <v>0.102669646451208</v>
       </c>
       <c r="F4" s="29">
-        <v>0.812965810954691</v>
+        <v>0.149021049971376</v>
       </c>
       <c r="G4" s="29">
-        <v>0.80642923219241502</v>
+        <v>0.11145240261081001</v>
       </c>
       <c r="H4" s="29">
-        <v>0.78498572011423895</v>
+        <v>0.109600085182029</v>
       </c>
       <c r="I4" s="29">
-        <v>0.82670807453416195</v>
+        <v>5.85108295071518E-2</v>
       </c>
       <c r="J4" s="30">
-        <v>0.81506608960112303</v>
+        <v>8.7800319511939798E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2091,28 +2074,28 @@
         <v>18</v>
       </c>
       <c r="C5" s="29">
-        <v>0.78117647058823503</v>
+        <v>5.6485867329768902E-2</v>
       </c>
       <c r="D5" s="29">
-        <v>0.84397986837011196</v>
+        <v>6.18416737633131E-2</v>
       </c>
       <c r="E5" s="29">
-        <v>0.75082742316784901</v>
+        <v>6.1267452416474702E-2</v>
       </c>
       <c r="F5" s="29">
-        <v>0.84836322588737001</v>
+        <v>5.2284982882967401E-2</v>
       </c>
       <c r="G5" s="29">
-        <v>0.82777777777777795</v>
+        <v>5.6230047173871499E-2</v>
       </c>
       <c r="H5" s="29">
-        <v>0.80890410958904102</v>
+        <v>6.7176599047776606E-2</v>
       </c>
       <c r="I5" s="29">
-        <v>0.88383067314365005</v>
+        <v>6.0922698785899197E-2</v>
       </c>
       <c r="J5" s="30">
-        <v>0.84144262295081995</v>
+        <v>5.37855933508148E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2123,28 +2106,28 @@
         <v>16</v>
       </c>
       <c r="C6" s="29">
-        <v>0.795604395604396</v>
+        <v>5.53871252505738E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>0.724444444444444</v>
+        <v>5.5193747172037802E-2</v>
       </c>
       <c r="E6" s="29">
-        <v>0.77571286707334397</v>
+        <v>5.2062144668500801E-2</v>
       </c>
       <c r="F6" s="29">
-        <v>0.83588235294117696</v>
+        <v>5.3449283069479298E-2</v>
       </c>
       <c r="G6" s="29">
-        <v>0.81212121212121202</v>
+        <v>5.4474605695807199E-2</v>
       </c>
       <c r="H6" s="29">
-        <v>0.83219986120749501</v>
+        <v>5.7263195358692898E-2</v>
       </c>
       <c r="I6" s="29">
-        <v>0.80852941176470605</v>
+        <v>5.8434632121001799E-2</v>
       </c>
       <c r="J6" s="30">
-        <v>0.78117647058823503</v>
+        <v>5.1813785785904197E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2153,28 +2136,28 @@
         <v>17</v>
       </c>
       <c r="C7" s="29">
-        <v>0.78946741332062398</v>
+        <v>0.117265317733663</v>
       </c>
       <c r="D7" s="29">
-        <v>0.74932614555256105</v>
+        <v>0.11528562667914</v>
       </c>
       <c r="E7" s="29">
-        <v>0.79223985890652604</v>
+        <v>0.116255678380703</v>
       </c>
       <c r="F7" s="29">
-        <v>0.78579221723845305</v>
+        <v>0.118774156754077</v>
       </c>
       <c r="G7" s="29">
-        <v>0.77751196172248804</v>
+        <v>0.11167203038385499</v>
       </c>
       <c r="H7" s="29">
-        <v>0.78560450819672101</v>
+        <v>0.116972496948042</v>
       </c>
       <c r="I7" s="29">
-        <v>0.74946120689655205</v>
+        <v>0.102191059400023</v>
       </c>
       <c r="J7" s="30">
-        <v>0.79802123552123605</v>
+        <v>0.10914263399421301</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2183,28 +2166,28 @@
         <v>18</v>
       </c>
       <c r="C8" s="31">
-        <v>0.84397986837011196</v>
+        <v>7.3821521205865395E-2</v>
       </c>
       <c r="D8" s="31">
-        <v>0.83379006314786097</v>
+        <v>6.1859328745980602E-2</v>
       </c>
       <c r="E8" s="31">
-        <v>0.86653272101033296</v>
+        <v>6.3178172415816705E-2</v>
       </c>
       <c r="F8" s="31">
-        <v>0.80416202155332595</v>
+        <v>5.8813440451872499E-2</v>
       </c>
       <c r="G8" s="31">
-        <v>0.81997677119628298</v>
+        <v>6.1134636747793E-2</v>
       </c>
       <c r="H8" s="31">
-        <v>0.84670329670329703</v>
+        <v>6.3679452230774702E-2</v>
       </c>
       <c r="I8" s="31">
-        <v>0.79738562091503296</v>
+        <v>6.5022720539292103E-2</v>
       </c>
       <c r="J8" s="32">
-        <v>0.82440087145969498</v>
+        <v>5.9746485640603697E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2213,11 +2196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B47BB03-5D51-4927-8C90-D8C37E699AAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF95E80-F9D6-4C97-A976-8D8517BE58EB}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,28 +2250,28 @@
         <v>16</v>
       </c>
       <c r="C3" s="27">
-        <v>0.56676685599173504</v>
+        <v>0.78117647058823503</v>
       </c>
       <c r="D3" s="27">
-        <v>0.715399881889901</v>
+        <v>0.84836322588737001</v>
       </c>
       <c r="E3" s="27">
-        <v>0.77672221927719398</v>
+        <v>0.88768115942029002</v>
       </c>
       <c r="F3" s="27">
-        <v>0.68083212516010905</v>
+        <v>0.83983926521240004</v>
       </c>
       <c r="G3" s="27">
-        <v>0.70583055381003901</v>
+        <v>0.851928965094917</v>
       </c>
       <c r="H3" s="27">
-        <v>0.70039422254944295</v>
+        <v>0.84967672413793105</v>
       </c>
       <c r="I3" s="27">
-        <v>0.70967741935483897</v>
+        <v>0.85483870967741904</v>
       </c>
       <c r="J3" s="28">
-        <v>0.770716379122523</v>
+        <v>0.88089139344262302</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2297,28 +2280,28 @@
         <v>17</v>
       </c>
       <c r="C4" s="29">
-        <v>0.64877377982241102</v>
+        <v>0.79802123552123605</v>
       </c>
       <c r="D4" s="29">
-        <v>0.67300904635122705</v>
+        <v>0.80462184873949605</v>
       </c>
       <c r="E4" s="29">
-        <v>0.55103435372034404</v>
+        <v>0.75712250712250695</v>
       </c>
       <c r="F4" s="29">
-        <v>0.64998817638861595</v>
+        <v>0.812965810954691</v>
       </c>
       <c r="G4" s="29">
-        <v>0.66206391718163704</v>
+        <v>0.80642923219241502</v>
       </c>
       <c r="H4" s="29">
-        <v>0.57021232824276102</v>
+        <v>0.78498572011423895</v>
       </c>
       <c r="I4" s="29">
-        <v>0.65866344593730497</v>
+        <v>0.82670807453416195</v>
       </c>
       <c r="J4" s="30">
-        <v>0.66332650523339998</v>
+        <v>0.81506608960112303</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2327,28 +2310,28 @@
         <v>18</v>
       </c>
       <c r="C5" s="29">
-        <v>0.59055680383165399</v>
+        <v>0.78117647058823503</v>
       </c>
       <c r="D5" s="29">
-        <v>0.68819822963931598</v>
+        <v>0.84397986837011196</v>
       </c>
       <c r="E5" s="29">
-        <v>0.50194902496302896</v>
+        <v>0.75082742316784901</v>
       </c>
       <c r="F5" s="29">
-        <v>0.70243935868627105</v>
+        <v>0.84836322588737001</v>
       </c>
       <c r="G5" s="29">
-        <v>0.65653216429861305</v>
+        <v>0.82777777777777795</v>
       </c>
       <c r="H5" s="29">
-        <v>0.67577356589771598</v>
+        <v>0.80890410958904102</v>
       </c>
       <c r="I5" s="29">
-        <v>0.76794945455177199</v>
+        <v>0.88383067314365005</v>
       </c>
       <c r="J5" s="30">
-        <v>0.68903209995270498</v>
+        <v>0.84144262295081995</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2359,28 +2342,28 @@
         <v>16</v>
       </c>
       <c r="C6" s="29">
-        <v>0.60024504799878098</v>
+        <v>0.795604395604396</v>
       </c>
       <c r="D6" s="29">
-        <v>0.46238771750815499</v>
+        <v>0.724444444444444</v>
       </c>
       <c r="E6" s="29">
-        <v>0.55373095476506395</v>
+        <v>0.77571286707334397</v>
       </c>
       <c r="F6" s="29">
-        <v>0.67296424240959696</v>
+        <v>0.83588235294117696</v>
       </c>
       <c r="G6" s="29">
-        <v>0.63219312860955301</v>
+        <v>0.81212121212121202</v>
       </c>
       <c r="H6" s="29">
-        <v>0.69770438554929104</v>
+        <v>0.83219986120749501</v>
       </c>
       <c r="I6" s="29">
-        <v>0.61820862163611301</v>
+        <v>0.80852941176470605</v>
       </c>
       <c r="J6" s="30">
-        <v>0.57233605355801298</v>
+        <v>0.78117647058823503</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2389,28 +2372,28 @@
         <v>17</v>
       </c>
       <c r="C7" s="29">
-        <v>0.59467853558878603</v>
+        <v>0.78946741332062398</v>
       </c>
       <c r="D7" s="29">
-        <v>0.54168973671214904</v>
+        <v>0.74932614555256105</v>
       </c>
       <c r="E7" s="29">
-        <v>0.62813020857347601</v>
+        <v>0.79223985890652604</v>
       </c>
       <c r="F7" s="29">
-        <v>0.60571109926239297</v>
+        <v>0.78579221723845305</v>
       </c>
       <c r="G7" s="29">
-        <v>0.57433664281602703</v>
+        <v>0.77751196172248804</v>
       </c>
       <c r="H7" s="29">
-        <v>0.57207755354735501</v>
+        <v>0.78560450819672101</v>
       </c>
       <c r="I7" s="29">
-        <v>0.49981943364382903</v>
+        <v>0.74946120689655205</v>
       </c>
       <c r="J7" s="30">
-        <v>0.64877377982241102</v>
+        <v>0.79802123552123605</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2419,6 +2402,242 @@
         <v>18</v>
       </c>
       <c r="C8" s="31">
+        <v>0.84397986837011196</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.83379006314786097</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.86653272101033296</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0.80416202155332595</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0.81997677119628298</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0.84670329670329703</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0.79738562091503296</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0.82440087145969498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B47BB03-5D51-4927-8C90-D8C37E699AAE}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.56676685599173504</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0.715399881889901</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0.77672221927719398</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.68083212516010905</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0.70583055381003901</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0.70039422254944295</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0.770716379122523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.64877377982241102</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.67300904635122705</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.55103435372034404</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.64998817638861595</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.66206391718163704</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0.57021232824276102</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0.65866344593730497</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0.66332650523339998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.59055680383165399</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.68819822963931598</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.50194902496302896</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.70243935868627105</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.65653216429861305</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0.67577356589771598</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0.76794945455177199</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0.68903209995270498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.60024504799878098</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.46238771750815499</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.55373095476506395</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.67296424240959696</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.63219312860955301</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.69770438554929104</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.61820862163611301</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0.57233605355801298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.59467853558878603</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.54168973671214904</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.62813020857347601</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.60571109926239297</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.57433664281602703</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.57207755354735501</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0.49981943364382903</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.64877377982241102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="31">
         <v>0.68819822963931598</v>
       </c>
       <c r="D8" s="31">
